--- a/Data/BMI_Data.xlsx
+++ b/Data/BMI_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{64AD1003-ABC4-4AB3-8CAF-930E44C514A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EED7221-FA38-4DD7-8FED-C7A38BD26346}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{64AD1003-ABC4-4AB3-8CAF-930E44C514A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5A4C80B-2C5D-47FD-B6F0-4BCEB7BB83F0}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" firstSheet="6" activeTab="6" xr2:uid="{4FB50E91-3C14-4DA6-B24A-60521494A793}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="2" xr2:uid="{4FB50E91-3C14-4DA6-B24A-60521494A793}"/>
   </bookViews>
   <sheets>
     <sheet name="England_Men" sheetId="1" r:id="rId1"/>
@@ -15446,8 +15446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3A6F23-A14C-44C5-A963-58083556BCD8}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21241,7 +21241,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21838,7 +21838,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>

--- a/Data/BMI_Data.xlsx
+++ b/Data/BMI_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{64AD1003-ABC4-4AB3-8CAF-930E44C514A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5A4C80B-2C5D-47FD-B6F0-4BCEB7BB83F0}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{64AD1003-ABC4-4AB3-8CAF-930E44C514A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805DCC88-F9B6-427B-B774-CC4E6E6A0840}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="2" xr2:uid="{4FB50E91-3C14-4DA6-B24A-60521494A793}"/>
+    <workbookView xWindow="-38520" yWindow="105" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="2" xr2:uid="{4FB50E91-3C14-4DA6-B24A-60521494A793}"/>
   </bookViews>
   <sheets>
     <sheet name="England_Men" sheetId="1" r:id="rId1"/>
@@ -2551,9 +2551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2591,7 +2591,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2697,7 +2697,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2839,7 +2839,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2853,12 +2853,12 @@
       <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2003</v>
       </c>
@@ -2921,17 +2921,17 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>7.637858302303095</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>55.426270661406797</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>23.254251239006429</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>13.681619797283703</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1.9911097477894741</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>24.669643244758149</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3399,12 +3399,12 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0.76365156102130816</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>39.284035994871147</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>40.756878363840073</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>19.195434080267468</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>2.5290958204188905</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>26.799008552372737</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3872,12 +3872,12 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>0.97915664223442911</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>30.639921517782497</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>41.090543625071589</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>27.290378214911538</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>1.924345998811765</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>27.6293560426694</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4345,12 +4345,12 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>9.0155077262220773E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>20.51472227891114</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>47.45797584138667</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>31.937146802439965</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>1.813437267002159</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>28.571632796541856</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -4818,12 +4818,12 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0.1710995924230003</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>20.345506552057451</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>45.097785406046157</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>34.385608449473359</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>2.5642429699999614</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -5169,7 +5169,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>28.853520703495803</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5291,12 +5291,12 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>1.0729286703739269</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>17.595119773537853</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>43.098578071837927</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>38.233373484250244</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>2.7443307062725832</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>29.266289611137736</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -5764,12 +5764,12 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0.58865982116765447</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>25.636759183862463</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>50.291498868496816</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>23.48308212647315</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>1.6283664828835624</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>27.642390035262249</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -6239,12 +6239,12 @@
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>1.5866183248334393</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>30.234963328240035</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>41.226702684808707</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>26.951715662118129</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>2.1890419841755531</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>27.626221123326108</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -6714,12 +6714,12 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>469.30398449284172</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>548.49859630273738</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>544.74019785286669</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>571.24738736598783</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>509.22993916465504</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>408.58190676724672</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>272.56302007168557</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -7180,9 +7180,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>44</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>52</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>2.7978869999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>43.017366000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>31.324468</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>22.860278999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>64</v>
       </c>
@@ -8032,9 +8032,9 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>44</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>52</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>2.2839450000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>45.321438999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>29.853659</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>22.540956000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>64</v>
       </c>
@@ -8884,9 +8884,9 @@
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>44</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>52</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>2.553823</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>42.843418</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>30.733025000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>23.869734000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>64</v>
       </c>
@@ -9736,9 +9736,9 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0.35791552819475231</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>0.66779157988750426</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>0.76221196641104949</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>0.82318515449952967</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0.81855278343694793</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0.84030578138051482</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>0.68920137758864297</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -10066,9 +10066,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>0.38851571655621187</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>0.58811035601288952</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>0.5583085658983602</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0.70057733713469239</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>0.62304240190213811</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>0.72198005789336772</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0.58323218474335348</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -10396,9 +10396,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>0.37304783880745773</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>0.62886099229609771</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>0.65601381660353653</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>0.7605878904685055</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>0.71839995845816862</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>0.78004276158127928</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>0.62789891098359785</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -10726,12 +10726,12 @@
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2003</v>
       </c>
@@ -10794,17 +10794,17 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>6.3956474691065619</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>56.225585845805327</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>25.399799450393672</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>11.978967234694405</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>1.8963003736829367</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>24.54401446326381</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11296,12 +11296,12 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>2.0164492532647369</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>43.696967845347793</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>28.442667437301257</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>25.843915464086191</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>6.2443712033433982</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -11659,7 +11659,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>27.157906389012378</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -11793,12 +11793,12 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>1.2639876009419964</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>38.115262614628186</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>27.928677944710973</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>32.692071839718849</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>5.7224332224378793</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -12156,7 +12156,7 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>28.035950260424407</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -12290,12 +12290,12 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>0.20432905297334639</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>32.766014258156986</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>32.257880729529212</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>34.771775959340566</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>5.1658567724044842</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -12653,7 +12653,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>28.636099289684896</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -12787,12 +12787,12 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>0.9834278754945126</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>33.515744729604677</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>32.335924094146037</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>33.164903300754851</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>4.8560726653987292</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -13150,7 +13150,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>28.31040931056037</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -13284,12 +13284,12 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>2.530439432063238</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>28.165846596445078</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>35.285076013701989</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>34.018637957789537</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>3.2556012863583637</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -13647,7 +13647,7 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>28.097015521124813</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -13781,12 +13781,12 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="4"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>0.92955032015231176</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>29.671506532452096</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>41.434959941015045</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>27.96398320638054</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>1.8913297367774116</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -14144,7 +14144,7 @@
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>27.693090644845377</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -14278,12 +14278,12 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>1.9456947534886218</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>37.651136112047524</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>31.337887778361679</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>29.065281356101977</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>4.4107759393900441</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="AN72" s="1"/>
       <c r="AO72" s="3"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>27.565848868327652</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -14777,7 +14777,7 @@
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -14805,7 +14805,7 @@
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -14884,7 +14884,7 @@
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -14963,7 +14963,7 @@
       <c r="AN77" s="3"/>
       <c r="AO77" s="3"/>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -15042,7 +15042,7 @@
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -15121,7 +15121,7 @@
       <c r="AN79" s="3"/>
       <c r="AO79" s="3"/>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -15200,7 +15200,7 @@
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -15279,7 +15279,7 @@
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -15358,7 +15358,7 @@
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -15446,16 +15446,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3A6F23-A14C-44C5-A963-58083556BCD8}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2003</v>
       </c>
@@ -15518,17 +15518,17 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>7.0400159503264463</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>55.810959360813705</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>24.286845348393133</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>12.862179340466817</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>1.94548056980249</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -15886,7 +15886,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>24.609181522643521</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -16020,12 +16020,12 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>1.3953881809872033</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>41.509304023875714</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>34.547305951276051</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>22.548001843861119</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>4.4025631225881945</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -16383,7 +16383,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>26.979986620607988</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -16517,12 +16517,12 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>1.1220861647131395</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -16634,7 +16634,7 @@
         <v>34.39108304244877</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>34.485857164165026</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>30.000973628672945</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>3.8302441345643525</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -16880,7 +16880,7 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>27.833386944541953</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -17014,12 +17014,12 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>0.14746215607114013</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>26.663984845908779</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>39.828627357611225</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>33.359925640408861</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>3.4961094136105104</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -17377,7 +17377,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>28.603990313918921</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -17511,12 +17511,12 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>0.58821459465952497</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>27.108171402420169</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>38.544814248218366</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>33.758799754702117</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>3.7410535876327811</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -17874,7 +17874,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>28.574643413858247</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -18008,12 +18008,12 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>1.818640615834475</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>23.003462182554284</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>39.100925379463121</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>36.076971822148025</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>3.0059140776986815</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -18371,7 +18371,7 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>28.668049324095563</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -18505,12 +18505,12 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="4"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>0.77494128790812844</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>27.841568811180217</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>45.451795014709909</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -18734,7 +18734,7 @@
         <v>25.931694886201893</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>1.7720641828197492</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -18868,7 +18868,7 @@
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>27.670095659050311</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -19002,12 +19002,12 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>1.7684870381979787</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>33.99118260259236</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>36.218114261248438</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>28.02221609796095</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>3.3143285906690125</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -19366,7 +19366,7 @@
       <c r="AN72" s="1"/>
       <c r="AO72" s="3"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>27.595643164253143</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -19501,12 +19501,12 @@
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -19563,7 +19563,7 @@
       </c>
       <c r="W76" s="9"/>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1106.4254488321194</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>1093.4270781498292</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>1146.9165522136664</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -19787,7 +19787,7 @@
         <v>1046.680114838925</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>836.63039691458187</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>600.96193972844117</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -19968,12 +19968,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2003</v>
       </c>
@@ -20028,21 +20028,21 @@
       <c r="S1" s="5"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -20100,7 +20100,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -20158,7 +20158,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -20216,14 +20216,14 @@
       <c r="S6" s="6"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -20281,7 +20281,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -20339,7 +20339,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -20397,14 +20397,14 @@
       <c r="S10" s="6"/>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -20462,7 +20462,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="5"/>
@@ -20585,7 +20585,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S16" s="5"/>
       <c r="T16" s="10"/>
       <c r="U16" s="5"/>
@@ -20594,7 +20594,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="19:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -20603,7 +20603,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="19:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -20612,7 +20612,7 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="19:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -20634,9 +20634,9 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2003</v>
       </c>
@@ -20691,19 +20691,19 @@
       <c r="S1" s="5"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -20817,7 +20817,7 @@
       </c>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -20874,13 +20874,13 @@
       </c>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -20937,7 +20937,7 @@
       </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -21051,13 +21051,13 @@
       </c>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -21114,7 +21114,7 @@
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -21171,7 +21171,7 @@
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
   </sheetData>
@@ -21244,12 +21244,12 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2003</v>
       </c>
@@ -21304,17 +21304,17 @@
       <c r="S1" s="5"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>12.687058276922341</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>11.814167424522411</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -21482,12 +21482,12 @@
         <v>24.501225701444753</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>15.304593365597038</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>23.953005696297687</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -21655,12 +21655,12 @@
         <v>39.257599061894723</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>13.659166253412838</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>16.322325332462949</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -21842,9 +21842,9 @@
       <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -22164,7 +22164,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -22452,7 +22452,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -22484,7 +22484,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -22580,7 +22580,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -22772,7 +22772,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2012</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -22900,7 +22900,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -22932,7 +22932,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2013</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -23092,7 +23092,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -23124,7 +23124,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2014</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2014</v>
       </c>
@@ -23188,7 +23188,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -23284,7 +23284,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -23380,7 +23380,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -23412,7 +23412,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2016</v>
       </c>
@@ -23444,7 +23444,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2016</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2016</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2016</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -23604,7 +23604,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2017</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2017</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2017</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -23924,7 +23924,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2019</v>
       </c>
@@ -24020,7 +24020,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2019</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -24084,7 +24084,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2019</v>
       </c>
@@ -24180,7 +24180,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -24244,7 +24244,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2022</v>
       </c>
@@ -24404,7 +24404,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2022</v>
       </c>
@@ -24436,7 +24436,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2022</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2022</v>
       </c>
@@ -24500,7 +24500,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2022</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -24589,9 +24589,9 @@
       <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -24687,7 +24687,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -24719,7 +24719,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -24751,7 +24751,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -24815,7 +24815,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -24975,7 +24975,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -25007,7 +25007,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -25167,7 +25167,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -25199,7 +25199,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -25231,7 +25231,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -25295,7 +25295,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -25359,7 +25359,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2009</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2009</v>
       </c>
@@ -25455,7 +25455,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2009</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2009</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -25615,7 +25615,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2009</v>
       </c>
@@ -25647,7 +25647,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2010</v>
       </c>
@@ -25679,7 +25679,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2010</v>
       </c>
@@ -25743,7 +25743,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2010</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2010</v>
       </c>
@@ -25807,7 +25807,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2010</v>
       </c>
@@ -25839,7 +25839,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -25871,7 +25871,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2010</v>
       </c>
@@ -25967,7 +25967,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2010</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -26063,7 +26063,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2010</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2010</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -26191,7 +26191,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -26255,7 +26255,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2011</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -26415,7 +26415,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -26479,7 +26479,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -26511,7 +26511,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -26575,7 +26575,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -26639,7 +26639,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2012</v>
       </c>
@@ -26703,7 +26703,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2012</v>
       </c>
@@ -26735,7 +26735,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2012</v>
       </c>
@@ -26767,7 +26767,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2012</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2012</v>
       </c>
@@ -26831,7 +26831,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2012</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2012</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2012</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2012</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2012</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2012</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2012</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2012</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2012</v>
       </c>
@@ -27119,7 +27119,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2012</v>
       </c>
@@ -27151,7 +27151,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2012</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2013</v>
       </c>
@@ -27215,7 +27215,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2013</v>
       </c>
@@ -27247,7 +27247,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2013</v>
       </c>
@@ -27279,7 +27279,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2013</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2013</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2013</v>
       </c>
@@ -27375,7 +27375,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2013</v>
       </c>
@@ -27407,7 +27407,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2013</v>
       </c>
@@ -27439,7 +27439,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2013</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2013</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2013</v>
       </c>
@@ -27535,7 +27535,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2013</v>
       </c>
@@ -27567,7 +27567,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2013</v>
       </c>
@@ -27599,7 +27599,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2013</v>
       </c>
@@ -27631,7 +27631,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2013</v>
       </c>
@@ -27663,7 +27663,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2013</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2014</v>
       </c>
@@ -27727,7 +27727,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2014</v>
       </c>
@@ -27759,7 +27759,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2014</v>
       </c>
@@ -27791,7 +27791,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2014</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2014</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2014</v>
       </c>
@@ -27887,7 +27887,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2014</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2014</v>
       </c>
@@ -27951,7 +27951,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2014</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2014</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2014</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2014</v>
       </c>
@@ -28079,7 +28079,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2014</v>
       </c>
@@ -28111,7 +28111,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2014</v>
       </c>
@@ -28143,7 +28143,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2014</v>
       </c>
@@ -28175,7 +28175,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2014</v>
       </c>
@@ -28207,7 +28207,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2015</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2015</v>
       </c>
@@ -28271,7 +28271,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2015</v>
       </c>
@@ -28303,7 +28303,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2015</v>
       </c>
@@ -28335,7 +28335,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2015</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2015</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2015</v>
       </c>
@@ -28431,7 +28431,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2015</v>
       </c>
@@ -28463,7 +28463,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2015</v>
       </c>
@@ -28495,7 +28495,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2015</v>
       </c>
@@ -28527,7 +28527,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2015</v>
       </c>
@@ -28559,7 +28559,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2015</v>
       </c>
@@ -28591,7 +28591,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2015</v>
       </c>
@@ -28623,7 +28623,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2015</v>
       </c>
@@ -28655,7 +28655,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2015</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2015</v>
       </c>
@@ -28719,7 +28719,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2016</v>
       </c>
@@ -28751,7 +28751,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2016</v>
       </c>
@@ -28783,7 +28783,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2016</v>
       </c>
@@ -28815,7 +28815,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2016</v>
       </c>
@@ -28847,7 +28847,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2016</v>
       </c>
@@ -28879,7 +28879,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2016</v>
       </c>
@@ -28911,7 +28911,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2016</v>
       </c>
@@ -28943,7 +28943,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2016</v>
       </c>
@@ -28975,7 +28975,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2016</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -29039,7 +29039,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2016</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2016</v>
       </c>
@@ -29103,7 +29103,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2016</v>
       </c>
@@ -29135,7 +29135,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2016</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2016</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2016</v>
       </c>
@@ -29231,7 +29231,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2017</v>
       </c>
@@ -29263,7 +29263,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2017</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2017</v>
       </c>
@@ -29327,7 +29327,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2017</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2017</v>
       </c>
@@ -29391,7 +29391,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2017</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2017</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2017</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2017</v>
       </c>
@@ -29519,7 +29519,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2017</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2017</v>
       </c>
@@ -29583,7 +29583,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2017</v>
       </c>
@@ -29615,7 +29615,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2017</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2017</v>
       </c>
@@ -29679,7 +29679,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2017</v>
       </c>
@@ -29711,7 +29711,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2017</v>
       </c>
@@ -29743,7 +29743,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2018</v>
       </c>
@@ -29775,7 +29775,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2018</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2018</v>
       </c>
@@ -29839,7 +29839,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2018</v>
       </c>
@@ -29871,7 +29871,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2018</v>
       </c>
@@ -29903,7 +29903,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2018</v>
       </c>
@@ -29935,7 +29935,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2018</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2018</v>
       </c>
@@ -29999,7 +29999,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2018</v>
       </c>
@@ -30031,7 +30031,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2018</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2018</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2018</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2018</v>
       </c>
@@ -30159,7 +30159,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2018</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2018</v>
       </c>
@@ -30223,7 +30223,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2018</v>
       </c>
@@ -30255,7 +30255,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2019</v>
       </c>
@@ -30287,7 +30287,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2019</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2019</v>
       </c>
@@ -30351,7 +30351,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2019</v>
       </c>
@@ -30383,7 +30383,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2019</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2019</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2019</v>
       </c>
@@ -30479,7 +30479,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2019</v>
       </c>
@@ -30511,7 +30511,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2019</v>
       </c>
@@ -30543,7 +30543,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2019</v>
       </c>
@@ -30575,7 +30575,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2019</v>
       </c>
@@ -30607,7 +30607,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2019</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2019</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2019</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2019</v>
       </c>
@@ -30735,7 +30735,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2019</v>
       </c>
@@ -30767,7 +30767,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2021</v>
       </c>
@@ -30799,7 +30799,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2021</v>
       </c>
@@ -30831,7 +30831,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2021</v>
       </c>
@@ -30863,7 +30863,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2021</v>
       </c>
@@ -30895,7 +30895,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2021</v>
       </c>
@@ -30927,7 +30927,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2021</v>
       </c>
@@ -30959,7 +30959,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2021</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -31023,7 +31023,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2021</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2021</v>
       </c>
@@ -31087,7 +31087,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2021</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2021</v>
       </c>
@@ -31151,7 +31151,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2021</v>
       </c>
@@ -31183,7 +31183,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2021</v>
       </c>
@@ -31215,7 +31215,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2021</v>
       </c>
@@ -31247,7 +31247,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2021</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2022</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -31343,7 +31343,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -31407,7 +31407,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2022</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -31503,7 +31503,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -31535,7 +31535,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -31567,7 +31567,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -31599,7 +31599,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -31631,7 +31631,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -31663,7 +31663,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2022</v>
       </c>
@@ -31695,7 +31695,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2022</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2022</v>
       </c>
@@ -31759,7 +31759,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -31804,12 +31804,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>44</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -31921,7 +31921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -32022,7 +32022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>52</v>
       </c>
@@ -32123,7 +32123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -32230,7 +32230,7 @@
         <v>2.9885480000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>44.140433000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -32438,7 +32438,7 @@
         <v>31.188040000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>21.682977999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>64</v>
       </c>
